--- a/PythonResources/Data/Consumption/Sympheny/post_1065_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1065_hea.xlsx
@@ -375,7 +375,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>47.86670660248021</v>
+        <v>47.8667066024802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -399,7 +399,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>51.11745056331185</v>
+        <v>51.11745056331184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>53.49689432620331</v>
+        <v>53.4968943262033</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>25.60300831559766</v>
+        <v>25.60300831559765</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>43.40587232301587</v>
+        <v>43.40587232301586</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>15.56321512996822</v>
+        <v>15.56321512996821</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>17.86473130367963</v>
+        <v>17.86473130367962</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>23.87051887055112</v>
+        <v>23.87051887055111</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>84.24854534189961</v>
+        <v>84.2485453418996</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.7679486961562562</v>
+        <v>0.767948696156256</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>74.23870401642137</v>
+        <v>74.23870401642135</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3.766285224940815</v>
+        <v>3.766285224940814</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>187.0511250704104</v>
+        <v>187.0511250704103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>106.7015968268613</v>
+        <v>106.7015968268612</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>30.64526622866224</v>
+        <v>30.64526622866223</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>31.96994732341152</v>
+        <v>31.96994732341151</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>36.39209622577256</v>
+        <v>36.39209622577255</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>39.32456503861798</v>
+        <v>39.32456503861797</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>41.35994340212102</v>
+        <v>41.35994340212101</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>47.00331932258389</v>
+        <v>47.00331932258388</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>47.56601571681367</v>
+        <v>47.56601571681366</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>33.9133013807749</v>
+        <v>33.91330138077489</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>25.83315700225841</v>
+        <v>25.8331570022584</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>45.69592941911562</v>
+        <v>45.69592941911561</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>59.34131697918786</v>
+        <v>59.34131697918785</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>6.876530929838208</v>
+        <v>6.876530929838207</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>7.69701260967451</v>
+        <v>7.697012609674509</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>37.25577657670754</v>
+        <v>37.25577657670753</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>96.1976377302</v>
+        <v>96.19763773019996</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>84.78574455576586</v>
+        <v>84.78574455576585</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>9.531021862513343</v>
+        <v>9.531021862513342</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>80.74019193808465</v>
+        <v>80.74019193808464</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>80.85478271420124</v>
+        <v>80.85478271420122</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>2.769591652398992</v>
+        <v>2.769591652398991</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>3.779561342992174</v>
+        <v>3.779561342992173</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>8.013851709571291</v>
+        <v>8.01385170957129</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>0.8087910761041013</v>
+        <v>0.8087910761041012</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>0.9961250147268198</v>
+        <v>0.9961250147268196</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>9.169987649986432</v>
+        <v>9.16998764998643</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>30.17518028264944</v>
+        <v>30.17518028264943</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>57.4281492388066</v>
+        <v>57.42814923880659</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>56.72507181705803</v>
+        <v>56.72507181705802</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>159.1621919603581</v>
+        <v>159.162191960358</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>139.3464867523099</v>
+        <v>139.3464867523098</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>99.10343707852722</v>
+        <v>99.10343707852719</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>44.42488032444137</v>
+        <v>44.42488032444136</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>83.55045012780829</v>
+        <v>83.55045012780828</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>94.6994585805632</v>
+        <v>94.69945858056316</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>84.77841777979933</v>
+        <v>84.77841777979931</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>87.44565730265623</v>
+        <v>87.44565730265622</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>103.7667834457066</v>
+        <v>103.7667834457065</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>202.5405156057398</v>
+        <v>202.5405156057397</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>194.8594167534646</v>
+        <v>194.8594167534645</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>60.01889722057289</v>
+        <v>60.01889722057288</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>78.12189527868419</v>
+        <v>78.12189527868418</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>132.750336885159</v>
+        <v>132.7503368851589</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>43.46448653074814</v>
+        <v>43.46448653074813</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>182.8584507913212</v>
+        <v>182.8584507913211</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>70.50175520245055</v>
+        <v>70.50175520245054</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>91.72830439061448</v>
+        <v>91.72830439061444</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>137.6633797772778</v>
+        <v>137.6633797772777</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>58.72000637722581</v>
+        <v>58.7200063772258</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>63.45046601225858</v>
+        <v>63.45046601225857</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>4.95416075884298</v>
+        <v>4.954160758842979</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>88.56225795995596</v>
+        <v>88.56225795995594</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>38.65431157319948</v>
+        <v>38.65431157319947</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>57.8686350099146</v>
+        <v>57.86863500991459</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>87.7006291062916</v>
+        <v>87.70062910629159</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>52.84715583349111</v>
+        <v>52.8471558334911</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>20.23045934196174</v>
+        <v>20.23045934196173</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>94.7630549959527</v>
+        <v>94.76305499595269</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>123.6885803697502</v>
+        <v>123.6885803697501</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>102.4262765148696</v>
+        <v>102.4262765148695</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>24.43051901122521</v>
+        <v>24.4305190112252</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>78.49087171635882</v>
+        <v>78.49087171635881</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>64.30564730307239</v>
+        <v>64.30564730307238</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>94.1716376399341</v>
+        <v>94.17163763993408</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>8.419608562597924</v>
+        <v>8.419608562597922</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>198.2795557746425</v>
+        <v>198.2795557746424</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>138.6442885436773</v>
+        <v>138.6442885436772</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>7.639717221616217</v>
+        <v>7.639717221616216</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>8.006319783877695</v>
+        <v>8.006319783877693</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>16.6951727096938</v>
+        <v>16.69517270969379</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>32.25451930195168</v>
+        <v>32.25451930195167</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>34.48654833239649</v>
+        <v>34.48654833239648</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>44.52159376719961</v>
+        <v>44.5215937671996</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>187.9742988421936</v>
+        <v>187.9742988421935</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>7.050878890737842</v>
+        <v>7.050878890737841</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>77.21454734298867</v>
+        <v>77.21454734298865</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>30.15847523344574</v>
+        <v>30.15847523344573</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>113.4501436341161</v>
+        <v>113.450143634116</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>8.613357826256939</v>
+        <v>8.613357826256937</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>31.95089770589853</v>
+        <v>31.95089770589852</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>52.29735456496243</v>
+        <v>52.29735456496242</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>97.76410243184488</v>
+        <v>97.76410243184486</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>67.64314029134779</v>
+        <v>67.64314029134778</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>80.87529768690753</v>
+        <v>80.87529768690752</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>83.88162040149561</v>
+        <v>83.8816204014956</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>87.20651133510857</v>
+        <v>87.20651133510856</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>95.04323090891296</v>
+        <v>95.04323090891292</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>72.49610362054101</v>
+        <v>72.49610362054099</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9639,7 +9639,7 @@
         <v>1162</v>
       </c>
       <c r="B1162">
-        <v>68.83535327662214</v>
+        <v>68.83535327662213</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9647,7 +9647,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>56.04485393632505</v>
+        <v>56.04485393632504</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>40.97514112835867</v>
+        <v>40.97514112835866</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>57.86365280225736</v>
+        <v>57.86365280225735</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>88.96435142499932</v>
+        <v>88.96435142499931</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>92.55095479613686</v>
+        <v>92.55095479613684</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>97.19056240918462</v>
+        <v>97.19056240918459</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>104.5794694359145</v>
+        <v>104.5794694359144</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>52.64376453266014</v>
+        <v>52.64376453266013</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>50.79653777597768</v>
+        <v>50.79653777597767</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9919,7 +9919,7 @@
         <v>1197</v>
       </c>
       <c r="B1197">
-        <v>52.2179323134852</v>
+        <v>52.21793231348519</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -10015,7 +10015,7 @@
         <v>1209</v>
       </c>
       <c r="B1209">
-        <v>209.9610743046451</v>
+        <v>209.961074304645</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>157.9057964176169</v>
+        <v>157.9057964176168</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>9.51255838707768</v>
+        <v>9.512558387077677</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>9.296711567103598</v>
+        <v>9.296711567103596</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>87.82049516110409</v>
+        <v>87.82049516110408</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>6.691339340508104</v>
+        <v>6.691339340508103</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>113.9164196566263</v>
+        <v>113.9164196566262</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>95.97255917250808</v>
+        <v>95.97255917250806</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>94.7319894658546</v>
+        <v>94.73198946585458</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>1272</v>
       </c>
       <c r="B1272">
-        <v>3.091254701592138</v>
+        <v>3.091254701592137</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>4.355358012650119</v>
+        <v>4.355358012650118</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>1275</v>
       </c>
       <c r="B1275">
-        <v>4.840625038465575</v>
+        <v>4.840625038465574</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>143.196560987204</v>
+        <v>143.1965609872039</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>95.25922426440636</v>
+        <v>95.25922426440634</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>5.115848050872444</v>
+        <v>5.115848050872443</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>2.342757130271836</v>
+        <v>2.342757130271835</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>6.748810571189594</v>
+        <v>6.748810571189593</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11055,7 +11055,7 @@
         <v>1339</v>
       </c>
       <c r="B1339">
-        <v>9.41262116289416</v>
+        <v>9.412621162894158</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>114.9330830897425</v>
+        <v>114.9330830897424</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>7.33483542009682</v>
+        <v>7.334835420096819</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11311,7 +11311,7 @@
         <v>1371</v>
       </c>
       <c r="B1371">
-        <v>11.60848522716816</v>
+        <v>11.60848522716815</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>169.6251211116068</v>
+        <v>169.6251211116067</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>25.92793617616149</v>
+        <v>25.92793617616148</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1464</v>
       </c>
       <c r="B1464">
-        <v>30.30618303693106</v>
+        <v>30.30618303693105</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>63.91175982711154</v>
+        <v>63.91175982711153</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>38.0787200532686</v>
+        <v>38.07872005326859</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>36.71066444479744</v>
+        <v>36.71066444479743</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>43.58904172217921</v>
+        <v>43.5890417221792</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>91.68991208454985</v>
+        <v>91.68991208454982</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12319,7 +12319,7 @@
         <v>1497</v>
       </c>
       <c r="B1497">
-        <v>71.60721916028115</v>
+        <v>71.60721916028113</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>46.31284395549776</v>
+        <v>46.31284395549775</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1510</v>
       </c>
       <c r="B1510">
-        <v>57.35663990537323</v>
+        <v>57.35663990537322</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>64.85544857160107</v>
+        <v>64.85544857160106</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>203.429106994961</v>
+        <v>203.4291069949609</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>122.3671230564262</v>
+        <v>122.3671230564261</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>101.9342102409572</v>
+        <v>101.9342102409571</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>100.9811432232305</v>
+        <v>100.9811432232304</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12655,7 +12655,7 @@
         <v>1539</v>
       </c>
       <c r="B1539">
-        <v>39.84417999016454</v>
+        <v>39.84417999016453</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1541</v>
       </c>
       <c r="B1541">
-        <v>58.38092318549463</v>
+        <v>58.38092318549462</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>64.72825574082205</v>
+        <v>64.72825574082204</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>17.12625090046077</v>
+        <v>17.12625090046076</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>66.21588433306704</v>
+        <v>66.21588433306702</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>89.44850478086786</v>
+        <v>89.44850478086785</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>78.70217593523365</v>
+        <v>78.70217593523364</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>85.0075993320325</v>
+        <v>85.00759933203248</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>42.11401518459666</v>
+        <v>42.11401518459665</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13687,7 +13687,7 @@
         <v>1668</v>
       </c>
       <c r="B1668">
-        <v>30.38912214087222</v>
+        <v>30.38912214087221</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13831,7 +13831,7 @@
         <v>1686</v>
       </c>
       <c r="B1686">
-        <v>71.72972285444159</v>
+        <v>71.72972285444158</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>92.1230710796913</v>
+        <v>92.12307107969129</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>7.458423477100309</v>
+        <v>7.458423477100308</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>10.72194533521759</v>
+        <v>10.72194533521758</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>96.92035091153886</v>
+        <v>96.92035091153885</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>44.03245820367383</v>
+        <v>44.03245820367382</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>44.63383997500691</v>
+        <v>44.6338399750069</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>29.97120283974114</v>
+        <v>29.97120283974113</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>72.04770493138915</v>
+        <v>72.04770493138913</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>44.13942913278522</v>
+        <v>44.13942913278521</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>48.08328610005094</v>
+        <v>48.08328610005093</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>59.4843356460546</v>
+        <v>59.48433564605459</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>85.64737340943022</v>
+        <v>85.6473734094302</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>88.34304082303727</v>
+        <v>88.34304082303726</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>6.74549886845272</v>
+        <v>6.745498868452719</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>3.84145794635745</v>
+        <v>3.841457946357449</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -15935,7 +15935,7 @@
         <v>1949</v>
       </c>
       <c r="B1949">
-        <v>9.13247455703778</v>
+        <v>9.132474557037778</v>
       </c>
     </row>
     <row r="1950" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>5.397811697168524</v>
+        <v>5.397811697168523</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16127,7 +16127,7 @@
         <v>1973</v>
       </c>
       <c r="B1973">
-        <v>29.38916375695971</v>
+        <v>29.3891637569597</v>
       </c>
     </row>
     <row r="1974" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>33.80633045166351</v>
+        <v>33.8063304516635</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>18.08397774770218</v>
+        <v>18.08397774770217</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>34.23919637576631</v>
+        <v>34.2391963757663</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>36.97530759270863</v>
+        <v>36.97530759270862</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>44.7408109041183</v>
+        <v>44.74081090411829</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>38.59599043650587</v>
+        <v>38.59599043650586</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>43.62743402824385</v>
+        <v>43.62743402824384</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>49.63216653937615</v>
+        <v>49.63216653937614</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>135.5207374136247</v>
+        <v>135.5207374136246</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>23.14824529577023</v>
+        <v>23.14824529577022</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16911,7 +16911,7 @@
         <v>2071</v>
       </c>
       <c r="B2071">
-        <v>204.8651550844016</v>
+        <v>204.8651550844015</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>6.983208787910938</v>
+        <v>6.983208787910937</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>6.459813219965641</v>
+        <v>6.45981321996564</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>4.920662739123988</v>
+        <v>4.920662739123987</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>5.959072043308867</v>
+        <v>5.959072043308866</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>61.06604004170988</v>
+        <v>61.06604004170987</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>4.336660080383525</v>
+        <v>4.336660080383524</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17615,7 +17615,7 @@
         <v>2159</v>
       </c>
       <c r="B2159">
-        <v>35.14888887977113</v>
+        <v>35.14888887977112</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>13.31741176070633</v>
+        <v>13.31741176070632</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>42.10639533759147</v>
+        <v>42.10639533759146</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>93.06881132145146</v>
+        <v>93.06881132145143</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18103,7 +18103,7 @@
         <v>2220</v>
       </c>
       <c r="B2220">
-        <v>83.28287626951048</v>
+        <v>83.28287626951047</v>
       </c>
     </row>
     <row r="2221" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>59.21881328502742</v>
+        <v>59.21881328502741</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>4.151615026572752</v>
+        <v>4.151615026572751</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18239,7 +18239,7 @@
         <v>2237</v>
       </c>
       <c r="B2237">
-        <v>4.937514323847015</v>
+        <v>4.937514323847014</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
@@ -18295,7 +18295,7 @@
         <v>2244</v>
       </c>
       <c r="B2244">
-        <v>70.01496420723406</v>
+        <v>70.01496420723404</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>56.14918722608849</v>
+        <v>56.14918722608848</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>59.70062207258667</v>
+        <v>59.70062207258666</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>3.08896874749058</v>
+        <v>3.088968747490579</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>106.0585989680383</v>
+        <v>106.0585989680382</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>78.96711215418351</v>
+        <v>78.9671121541835</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>72.8729929762595</v>
+        <v>72.87299297625948</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -19103,7 +19103,7 @@
         <v>2345</v>
       </c>
       <c r="B2345">
-        <v>7.272118217823292</v>
+        <v>7.272118217823291</v>
       </c>
     </row>
     <row r="2346" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>14.15497948209659</v>
+        <v>14.15497948209658</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>32.86117635198067</v>
+        <v>32.86117635198066</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>38.35127611922365</v>
+        <v>38.35127611922364</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>174.2248710633966</v>
+        <v>174.2248710633965</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>57.4334245175025</v>
+        <v>57.43342451750249</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19543,7 +19543,7 @@
         <v>2400</v>
       </c>
       <c r="B2400">
-        <v>18.50969273846165</v>
+        <v>18.50969273846164</v>
       </c>
     </row>
     <row r="2401" spans="1:2">
@@ -19759,7 +19759,7 @@
         <v>2427</v>
       </c>
       <c r="B2427">
-        <v>8.072671067030623</v>
+        <v>8.072671067030621</v>
       </c>
     </row>
     <row r="2428" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>108.058808806902</v>
+        <v>108.0588088069019</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>80.17456483346825</v>
+        <v>80.17456483346824</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>71.20190191381251</v>
+        <v>71.20190191381249</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20135,7 +20135,7 @@
         <v>2474</v>
       </c>
       <c r="B2474">
-        <v>5.164673685913424</v>
+        <v>5.164673685913423</v>
       </c>
     </row>
     <row r="2475" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>7.756007809757039</v>
+        <v>7.756007809757038</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>9.84569223672403</v>
+        <v>9.845692236724028</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20247,7 +20247,7 @@
         <v>2488</v>
       </c>
       <c r="B2488">
-        <v>3.879996787941417</v>
+        <v>3.879996787941416</v>
       </c>
     </row>
     <row r="2489" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>57.96593459475017</v>
+        <v>57.96593459475016</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20375,7 +20375,7 @@
         <v>2504</v>
       </c>
       <c r="B2504">
-        <v>31.72933600067055</v>
+        <v>31.72933600067054</v>
       </c>
     </row>
     <row r="2505" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>40.05548420903937</v>
+        <v>40.05548420903936</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20519,7 +20519,7 @@
         <v>2522</v>
       </c>
       <c r="B2522">
-        <v>41.82123721697398</v>
+        <v>41.82123721697397</v>
       </c>
     </row>
     <row r="2523" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>202.0422948400155</v>
+        <v>202.0422948400154</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>6.683338501152649</v>
+        <v>6.683338501152648</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>6.392055195827138</v>
+        <v>6.392055195827137</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>5.989053210563922</v>
+        <v>5.989053210563921</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>104.6014497638141</v>
+        <v>104.601449763814</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>70.34877212026933</v>
+        <v>70.34877212026932</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>91.03020917652314</v>
+        <v>91.03020917652312</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>60.54114981146741</v>
+        <v>60.5411498114674</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>7.322438515161445</v>
+        <v>7.322438515161444</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>28.29096796088792</v>
+        <v>28.29096796088791</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>39.37262868895844</v>
+        <v>39.37262868895843</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>35.43170243207933</v>
+        <v>35.43170243207932</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21895,7 +21895,7 @@
         <v>2694</v>
       </c>
       <c r="B2694">
-        <v>35.2075030875034</v>
+        <v>35.20750308750339</v>
       </c>
     </row>
     <row r="2695" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>4.768734712681947</v>
+        <v>4.768734712681946</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>97.02761491168891</v>
+        <v>97.0276149116889</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>4.870430363097433</v>
+        <v>4.870430363097432</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>6.632432061737173</v>
+        <v>6.632432061737172</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>83.49476663046264</v>
+        <v>83.49476663046262</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>60.2205300951719</v>
+        <v>60.22053009517189</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22623,7 +22623,7 @@
         <v>2785</v>
       </c>
       <c r="B2785">
-        <v>2.78330151558757</v>
+        <v>2.783301515587569</v>
       </c>
     </row>
     <row r="2786" spans="1:2">
@@ -22639,7 +22639,7 @@
         <v>2787</v>
       </c>
       <c r="B2787">
-        <v>4.188541977444081</v>
+        <v>4.18854197744408</v>
       </c>
     </row>
     <row r="2788" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>4.727060010984303</v>
+        <v>4.727060010984302</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>5.499243583649216</v>
+        <v>5.499243583649215</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22703,7 +22703,7 @@
         <v>2795</v>
       </c>
       <c r="B2795">
-        <v>82.84707963502106</v>
+        <v>82.84707963502105</v>
       </c>
     </row>
     <row r="2796" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>74.49103818070878</v>
+        <v>74.49103818070877</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>74.7123068148981</v>
+        <v>74.71230681489808</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>2.303037212402064</v>
+        <v>2.303037212402063</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>2.792923037786822</v>
+        <v>2.792923037786821</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22927,7 +22927,7 @@
         <v>2823</v>
       </c>
       <c r="B2823">
-        <v>2.320064639748288</v>
+        <v>2.320064639748287</v>
       </c>
     </row>
     <row r="2824" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>30.81202364966054</v>
+        <v>30.81202364966053</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>6.067742784444493</v>
+        <v>6.067742784444492</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>207.8257587169585</v>
+        <v>207.8257587169584</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>85.27253555098235</v>
+        <v>85.27253555098234</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>52.25866918785913</v>
+        <v>52.25866918785912</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>2920</v>
       </c>
       <c r="B2920">
-        <v>49.22714236394617</v>
+        <v>49.22714236394616</v>
       </c>
     </row>
     <row r="2921" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>76.42237632548705</v>
+        <v>76.42237632548704</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>0.6040838863095381</v>
+        <v>0.604083886309538</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>18.92330389532441</v>
+        <v>18.9233038953244</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>6.307943807731332</v>
+        <v>6.307943807731331</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24471,7 +24471,7 @@
         <v>3016</v>
       </c>
       <c r="B3016">
-        <v>4.400901252058092</v>
+        <v>4.400901252058091</v>
       </c>
     </row>
     <row r="3017" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>5.213968234616262</v>
+        <v>5.213968234616261</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24495,7 +24495,7 @@
         <v>3019</v>
       </c>
       <c r="B3019">
-        <v>6.008161442284642</v>
+        <v>6.008161442284641</v>
       </c>
     </row>
     <row r="3020" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>20.73254864539636</v>
+        <v>20.73254864539635</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>107.0063907070691</v>
+        <v>107.006390707069</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>99.62129360384182</v>
+        <v>99.62129360384181</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>79.9149038932143</v>
+        <v>79.91490389321429</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>88.1138592708041</v>
+        <v>88.11385927080408</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>47.87960172818131</v>
+        <v>47.8796017281813</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -24847,7 +24847,7 @@
         <v>3063</v>
       </c>
       <c r="B3063">
-        <v>45.24782380100243</v>
+        <v>45.24782380100242</v>
       </c>
     </row>
     <row r="3064" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>63.11929573857126</v>
+        <v>63.11929573857125</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>3103</v>
       </c>
       <c r="B3103">
-        <v>153.7025715811359</v>
+        <v>153.7025715811358</v>
       </c>
     </row>
     <row r="3104" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>0.881903508118947</v>
+        <v>0.8819035081189469</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>41.27084980636797</v>
+        <v>41.27084980636796</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>0.9841413399559574</v>
+        <v>0.9841413399559572</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>2.165282101389685</v>
+        <v>2.165282101389684</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>2.698697768146813</v>
+        <v>2.698697768146812</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>5.420085096106786</v>
+        <v>5.420085096106785</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>22.57936510262469</v>
+        <v>22.57936510262468</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>115.6663468284732</v>
+        <v>115.6663468284731</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>80.58251971928485</v>
+        <v>80.58251971928483</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26015,7 +26015,7 @@
         <v>3209</v>
       </c>
       <c r="B3209">
-        <v>98.8080214715566</v>
+        <v>98.80802147155656</v>
       </c>
     </row>
     <row r="3210" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>39.00863445894105</v>
+        <v>39.00863445894104</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>51.23966118643363</v>
+        <v>51.23966118643362</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>1.712633882177237</v>
+        <v>1.712633882177236</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>1.237340063807427</v>
+        <v>1.237340063807426</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -26991,7 +26991,7 @@
         <v>3331</v>
       </c>
       <c r="B3331">
-        <v>3.366184642960346</v>
+        <v>3.366184642960345</v>
       </c>
     </row>
     <row r="3332" spans="1:2">
@@ -26999,7 +26999,7 @@
         <v>3332</v>
       </c>
       <c r="B3332">
-        <v>4.866239447244576</v>
+        <v>4.866239447244575</v>
       </c>
     </row>
     <row r="3333" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>34.54750710843805</v>
+        <v>34.54750710843804</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>35.40854982002508</v>
+        <v>35.40854982002507</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27239,7 +27239,7 @@
         <v>3362</v>
       </c>
       <c r="B3362">
-        <v>43.79800137274475</v>
+        <v>43.79800137274474</v>
       </c>
     </row>
     <row r="3363" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>102.9561489527693</v>
+        <v>102.9561489527692</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>94.23523405532362</v>
+        <v>94.2352340553236</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>87.19918455914204</v>
+        <v>87.19918455914203</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27647,7 +27647,7 @@
         <v>3413</v>
       </c>
       <c r="B3413">
-        <v>5.254412037951528</v>
+        <v>5.254412037951527</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>51.94068711091157</v>
+        <v>51.94068711091156</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>0.996813731667674</v>
+        <v>0.9968137316676738</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27863,7 +27863,7 @@
         <v>3440</v>
       </c>
       <c r="B3440">
-        <v>131.336269123618</v>
+        <v>131.3362691236179</v>
       </c>
     </row>
     <row r="3441" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>68.95521933143463</v>
+        <v>68.95521933143462</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -28103,7 +28103,7 @@
         <v>3470</v>
       </c>
       <c r="B3470">
-        <v>43.45159140504704</v>
+        <v>43.45159140504703</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -28415,7 +28415,7 @@
         <v>3509</v>
       </c>
       <c r="B3509">
-        <v>4.071254947771811</v>
+        <v>4.07125494777181</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>0.7954797895281029</v>
+        <v>0.7954797895281028</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>2.352686377061682</v>
+        <v>2.352686377061681</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>5.433976663339334</v>
+        <v>5.433976663339333</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28751,7 +28751,7 @@
         <v>3551</v>
       </c>
       <c r="B3551">
-        <v>8.316652706716193</v>
+        <v>8.316652706716191</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -28759,7 +28759,7 @@
         <v>3552</v>
       </c>
       <c r="B3552">
-        <v>8.213989921873123</v>
+        <v>8.213989921873122</v>
       </c>
     </row>
     <row r="3553" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>5.949928226902633</v>
+        <v>5.949928226902632</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>71.505230438827</v>
+        <v>71.50523043882698</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>45.94826358340304</v>
+        <v>45.94826358340303</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>32.15516821984549</v>
+        <v>32.15516821984548</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>6.831808289338486</v>
+        <v>6.831808289338485</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>5.078921100001114</v>
+        <v>5.078921100001113</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29879,7 +29879,7 @@
         <v>3692</v>
       </c>
       <c r="B3692">
-        <v>3.780997391081614</v>
+        <v>3.780997391081613</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>22.65799606229753</v>
+        <v>22.65799606229752</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>157.5851767013214</v>
+        <v>157.5851767013213</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>86.63824659114422</v>
+        <v>86.63824659114421</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>94.0617360004361</v>
+        <v>94.06173600043608</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>47.48952417572306</v>
+        <v>47.48952417572305</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>57.25494425495774</v>
+        <v>57.25494425495773</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>51.17635784208278</v>
+        <v>51.17635784208277</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>34.18820201503924</v>
+        <v>34.18820201503923</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>92.63506618423268</v>
+        <v>92.63506618423266</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>30.64380087346893</v>
+        <v>30.64380087346892</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>42.41705063857249</v>
+        <v>42.41705063857248</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>28.61583720724402</v>
+        <v>28.61583720724401</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>27.15493669372494</v>
+        <v>27.15493669372493</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>19.78988564954214</v>
+        <v>19.78988564954213</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>69.19436529898229</v>
+        <v>69.19436529898228</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>22.04152113247339</v>
+        <v>22.04152113247338</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>63.50204651506298</v>
+        <v>63.50204651506297</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>44.94977055468384</v>
+        <v>44.94977055468383</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>40.27704591426735</v>
+        <v>40.27704591426734</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>24.91385176818551</v>
+        <v>24.9138517681855</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33943,7 +33943,7 @@
         <v>4200</v>
       </c>
       <c r="B4200">
-        <v>0.656171402010819</v>
+        <v>0.6561714020108189</v>
       </c>
     </row>
     <row r="4201" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>44.82755993156206</v>
+        <v>44.82755993156205</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>52.22848287087701</v>
+        <v>52.228482870877</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>24.94606027533439</v>
+        <v>24.94606027533438</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>0.3588625561304307</v>
+        <v>0.3588625561304306</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>39.2735706778909</v>
+        <v>39.27357067789089</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35535,7 +35535,7 @@
         <v>4399</v>
       </c>
       <c r="B4399">
-        <v>135.4366260255289</v>
+        <v>135.4366260255288</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
@@ -35879,7 +35879,7 @@
         <v>4442</v>
       </c>
       <c r="B4442">
-        <v>0.7448341833370359</v>
+        <v>0.7448341833370358</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>58.69450919686227</v>
+        <v>58.69450919686226</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>29.47180978986221</v>
+        <v>29.4718097898622</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>45.59423376870014</v>
+        <v>45.59423376870013</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>137.7474911653736</v>
+        <v>137.7474911653735</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>45.76743875254899</v>
+        <v>45.76743875254898</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>54.68940038251633</v>
+        <v>54.68940038251632</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>31.57635291848933</v>
+        <v>31.57635291848932</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>44.99812727606296</v>
+        <v>44.99812727606295</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>30.38912214087222</v>
+        <v>30.38912214087221</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>38.56756254575572</v>
+        <v>38.56756254575571</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>2.523239068010652</v>
+        <v>2.523239068010651</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>40.21872477757374</v>
+        <v>40.21872477757373</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>95.69296940162516</v>
+        <v>95.69296940162512</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>20.81888737338599</v>
+        <v>20.81888737338598</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>54.70229550821743</v>
+        <v>54.70229550821742</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>73.77301413598849</v>
+        <v>73.77301413598848</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>30.66285049098192</v>
+        <v>30.66285049098191</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>25.41731850550183</v>
+        <v>25.41731850550182</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>27.66845576766735</v>
+        <v>27.66845576766734</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>87.11712466831686</v>
+        <v>87.11712466831685</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>63.29279379345878</v>
+        <v>63.29279379345877</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>30.10249866506142</v>
+        <v>30.10249866506141</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>30.78769875345165</v>
+        <v>30.78769875345164</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>36.91171117731912</v>
+        <v>36.91171117731911</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>1.65667489805524</v>
+        <v>1.656674898055239</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40679,7 +40679,7 @@
         <v>5042</v>
       </c>
       <c r="B5042">
-        <v>6.605703983011258</v>
+        <v>6.605703983011257</v>
       </c>
     </row>
     <row r="5043" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>7.228919546724609</v>
+        <v>7.228919546724608</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>7.820161060120007</v>
+        <v>7.820161060120006</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>61.92503125602628</v>
+        <v>61.92503125602627</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>34.0967638509769</v>
+        <v>34.09676385097689</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>88.87496475820761</v>
+        <v>88.8749647582076</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>0.8238490660705212</v>
+        <v>0.8238490660705211</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -42007,7 +42007,7 @@
         <v>5208</v>
       </c>
       <c r="B5208">
-        <v>3.449592660563365</v>
+        <v>3.449592660563364</v>
       </c>
     </row>
     <row r="5209" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>62.91033608800572</v>
+        <v>62.91033608800571</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>45.15843713421072</v>
+        <v>45.15843713421071</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>39.76241317037803</v>
+        <v>39.76241317037802</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>45.16605698121591</v>
+        <v>45.1660569812159</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>61.24715794360259</v>
+        <v>61.24715794360258</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>38.18569098237999</v>
+        <v>38.18569098237998</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>55.13516143232023</v>
+        <v>55.13516143232022</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>32.35387038405788</v>
+        <v>32.35387038405787</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>29.20570128675771</v>
+        <v>29.2057012867577</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>0.6010183632451406</v>
+        <v>0.6010183632451405</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>63.18611593538605</v>
+        <v>63.18611593538604</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>54.68705581420704</v>
+        <v>54.68705581420703</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>62.91590443774029</v>
+        <v>62.91590443774028</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>136.9368566724363</v>
+        <v>136.9368566724362</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>58.19746071529263</v>
+        <v>58.19746071529262</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>34.90915677014615</v>
+        <v>34.90915677014614</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44687,7 +44687,7 @@
         <v>5543</v>
       </c>
       <c r="B5543">
-        <v>3.697149766920604</v>
+        <v>3.697149766920603</v>
       </c>
     </row>
     <row r="5544" spans="1:2">
@@ -44735,7 +44735,7 @@
         <v>5549</v>
       </c>
       <c r="B5549">
-        <v>4.96424240257293</v>
+        <v>4.964242402572929</v>
       </c>
     </row>
     <row r="5550" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>43.08964867230028</v>
+        <v>43.08964867230027</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>47.26825554153374</v>
+        <v>47.26825554153373</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>40.25154873390381</v>
+        <v>40.2515487339038</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>38.59305972611926</v>
+        <v>38.59305972611925</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>56.07533332434583</v>
+        <v>56.07533332434582</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>47.99389943325923</v>
+        <v>47.99389943325922</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>43.3343629895825</v>
+        <v>43.33436298958249</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>77.45633094988428</v>
+        <v>77.45633094988426</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>32.8685031279472</v>
+        <v>32.86850312794719</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>75.6448588599185</v>
+        <v>75.64485885991849</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>61.45054924443356</v>
+        <v>61.45054924443355</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>48.91121178426924</v>
+        <v>48.91121178426923</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>1.792226114856885</v>
+        <v>1.792226114856884</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -46015,7 +46015,7 @@
         <v>5709</v>
       </c>
       <c r="B5709">
-        <v>0.815048142779521</v>
+        <v>0.8150481427795209</v>
       </c>
     </row>
     <row r="5710" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>81.27533965468027</v>
+        <v>81.27533965468025</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46135,7 +46135,7 @@
         <v>5724</v>
       </c>
       <c r="B5724">
-        <v>73.19683647398028</v>
+        <v>73.19683647398027</v>
       </c>
     </row>
     <row r="5725" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>52.23610271788221</v>
+        <v>52.2361027178822</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>46.26184959477068</v>
+        <v>46.26184959477067</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>49.49237165393469</v>
+        <v>49.49237165393468</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>33.51325941300216</v>
+        <v>33.51325941300215</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>72.53185828725769</v>
+        <v>72.53185828725768</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -46887,7 +46887,7 @@
         <v>5818</v>
       </c>
       <c r="B5818">
-        <v>57.80767623387304</v>
+        <v>57.80767623387303</v>
       </c>
     </row>
     <row r="5819" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>51.56321161311576</v>
+        <v>51.56321161311575</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>40.4048248871237</v>
+        <v>40.40482488712369</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>3.543463314246594</v>
+        <v>3.543463314246593</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47455,7 +47455,7 @@
         <v>5889</v>
       </c>
       <c r="B5889">
-        <v>4.433344216037903</v>
+        <v>4.433344216037902</v>
       </c>
     </row>
     <row r="5890" spans="1:2">
@@ -47511,7 +47511,7 @@
         <v>5896</v>
       </c>
       <c r="B5896">
-        <v>2.920611158621184</v>
+        <v>2.920611158621183</v>
       </c>
     </row>
     <row r="5897" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>9.651005145741298</v>
+        <v>9.651005145741296</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>98.9914839417586</v>
+        <v>98.99148394175856</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>85.47123771519475</v>
+        <v>85.47123771519473</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>42.26201605912064</v>
+        <v>42.26201605912063</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>46.38406021789246</v>
+        <v>46.38406021789245</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>120.1471099385665</v>
+        <v>120.1471099385664</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>53.56840365963668</v>
+        <v>53.56840365963667</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>26.93267161800418</v>
+        <v>26.93267161800417</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>26.39579478228046</v>
+        <v>26.39579478228045</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48607,7 +48607,7 @@
         <v>6033</v>
       </c>
       <c r="B6033">
-        <v>2.463994757545261</v>
+        <v>2.46399475754526</v>
       </c>
     </row>
     <row r="6034" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>1.843487170229141</v>
+        <v>1.84348717022914</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>65.1183332932803</v>
+        <v>65.11833329328029</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48863,7 +48863,7 @@
         <v>6065</v>
       </c>
       <c r="B6065">
-        <v>74.2513060710838</v>
+        <v>74.25130607108379</v>
       </c>
     </row>
     <row r="6066" spans="1:2">
@@ -49055,7 +49055,7 @@
         <v>6089</v>
       </c>
       <c r="B6089">
-        <v>48.19025702916233</v>
+        <v>48.19025702916232</v>
       </c>
     </row>
     <row r="6090" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>55.52729048204911</v>
+        <v>55.5272904820491</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>37.49023340763662</v>
+        <v>37.49023340763661</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>33.00360887677008</v>
+        <v>33.00360887677007</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>63.5580230834473</v>
+        <v>63.55802308344729</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>57.04334696504425</v>
+        <v>57.04334696504424</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>41.97392722811654</v>
+        <v>41.97392722811653</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49903,7 +49903,7 @@
         <v>6195</v>
       </c>
       <c r="B6195">
-        <v>2.833867992598198</v>
+        <v>2.833867992598197</v>
       </c>
     </row>
     <row r="6196" spans="1:2">
@@ -49919,7 +49919,7 @@
         <v>6197</v>
       </c>
       <c r="B6197">
-        <v>4.391757435651858</v>
+        <v>4.391757435651857</v>
       </c>
     </row>
     <row r="6198" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>6.354952402332612</v>
+        <v>6.354952402332611</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>2.325208036476794</v>
+        <v>2.325208036476793</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>0.9768321482517436</v>
+        <v>0.9768321482517434</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50087,7 +50087,7 @@
         <v>6218</v>
       </c>
       <c r="B6218">
-        <v>6.61388066498991</v>
+        <v>6.613880664989909</v>
       </c>
     </row>
     <row r="6219" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>86.91637100683384</v>
+        <v>86.91637100683383</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>77.33646489507179</v>
+        <v>77.33646489507177</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>67.26566479355198</v>
+        <v>67.26566479355196</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50519,7 +50519,7 @@
         <v>6272</v>
       </c>
       <c r="B6272">
-        <v>131.9071715069303</v>
+        <v>131.9071715069302</v>
       </c>
     </row>
     <row r="6273" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>73.10217452849267</v>
+        <v>73.10217452849265</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>37.56643187768857</v>
+        <v>37.56643187768856</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>33.14633447259816</v>
+        <v>33.14633447259815</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>68.68969697040745</v>
+        <v>68.68969697040744</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>41.58912495435419</v>
+        <v>41.58912495435418</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -51215,7 +51215,7 @@
         <v>6359</v>
       </c>
       <c r="B6359">
-        <v>4.92883942110264</v>
+        <v>4.928839421102639</v>
       </c>
     </row>
     <row r="6360" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>5.098322402760496</v>
+        <v>5.098322402760495</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>5.151925095731655</v>
+        <v>5.151925095731654</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>5.368504593302389</v>
+        <v>5.368504593302388</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51359,7 +51359,7 @@
         <v>6377</v>
       </c>
       <c r="B6377">
-        <v>5.802337651832779</v>
+        <v>5.802337651832778</v>
       </c>
     </row>
     <row r="6378" spans="1:2">
@@ -51383,7 +51383,7 @@
         <v>6380</v>
       </c>
       <c r="B6380">
-        <v>8.847756042978283</v>
+        <v>8.847756042978281</v>
       </c>
     </row>
     <row r="6381" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>22.15159861459459</v>
+        <v>22.15159861459458</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>94.70209621991114</v>
+        <v>94.70209621991113</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>6.12911185994018</v>
+        <v>6.129111859940179</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>6.085444275179639</v>
+        <v>6.085444275179638</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>3.754005548420905</v>
+        <v>3.754005548420904</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>192.5907538431871</v>
+        <v>192.590753843187</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>73.8843811306798</v>
+        <v>73.88438113067978</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>67.17891576610822</v>
+        <v>67.1789157661082</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>63.71305766289915</v>
+        <v>63.71305766289914</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>87.71850643964994</v>
+        <v>87.71850643964993</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>3.704242086056208</v>
+        <v>3.704242086056207</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>5.427587714696517</v>
+        <v>5.427587714696516</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>3.97125910938056</v>
+        <v>3.971259109380559</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>2.799939158452375</v>
+        <v>2.799939158452374</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52735,7 +52735,7 @@
         <v>6549</v>
       </c>
       <c r="B6549">
-        <v>6.358733018731344</v>
+        <v>6.358733018731343</v>
       </c>
     </row>
     <row r="6550" spans="1:2">
@@ -52751,7 +52751,7 @@
         <v>6551</v>
       </c>
       <c r="B6551">
-        <v>7.753077099370425</v>
+        <v>7.753077099370424</v>
       </c>
     </row>
     <row r="6552" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>85.02020138669494</v>
+        <v>85.02020138669492</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52879,7 +52879,7 @@
         <v>6567</v>
       </c>
       <c r="B6567">
-        <v>81.73692654057189</v>
+        <v>81.73692654057187</v>
       </c>
     </row>
     <row r="6568" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>75.75944963603509</v>
+        <v>75.75944963603507</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>58.27131461703529</v>
+        <v>58.27131461703528</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>51.84866280477191</v>
+        <v>51.8486628047719</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>52.97757244569541</v>
+        <v>52.9775724456954</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>1.921139272632851</v>
+        <v>1.92113927263285</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>26.5002159933555</v>
+        <v>26.50021599335549</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>17.08401936378967</v>
+        <v>17.08401936378966</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54031,7 +54031,7 @@
         <v>6711</v>
       </c>
       <c r="B6711">
-        <v>8.489652540837985</v>
+        <v>8.489652540837984</v>
       </c>
     </row>
     <row r="6712" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>46.91920793448808</v>
+        <v>46.91920793448807</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>63.84845648276069</v>
+        <v>63.84845648276068</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>97.31247996126774</v>
+        <v>97.31247996126773</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>8.365566263068771</v>
+        <v>8.36556626306877</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>48.04753143333426</v>
+        <v>48.04753143333425</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>65.53566645233406</v>
+        <v>65.53566645233404</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54991,7 +54991,7 @@
         <v>6831</v>
       </c>
       <c r="B6831">
-        <v>44.30530734066754</v>
+        <v>44.30530734066753</v>
       </c>
     </row>
     <row r="6832" spans="1:2">
@@ -55319,7 +55319,7 @@
         <v>6872</v>
       </c>
       <c r="B6872">
-        <v>7.657242869728165</v>
+        <v>7.657242869728164</v>
       </c>
     </row>
     <row r="6873" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>5.67578957733881</v>
+        <v>5.675789577338809</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>6.47179982544689</v>
+        <v>6.471799825446889</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>80.04209672399332</v>
+        <v>80.04209672399331</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55871,7 +55871,7 @@
         <v>6941</v>
       </c>
       <c r="B6941">
-        <v>5.094922778712023</v>
+        <v>5.094922778712022</v>
       </c>
     </row>
     <row r="6942" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>88.00659527065405</v>
+        <v>88.00659527065403</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>57.76664628846045</v>
+        <v>57.76664628846044</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>4.311397356850917</v>
+        <v>4.311397356850916</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>13.09034031995152</v>
+        <v>13.09034031995151</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>4.411363888138302</v>
+        <v>4.411363888138301</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>4.764983403387081</v>
+        <v>4.76498340338708</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56775,7 +56775,7 @@
         <v>7054</v>
       </c>
       <c r="B7054">
-        <v>9.149619212799468</v>
+        <v>9.149619212799466</v>
       </c>
     </row>
     <row r="7055" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>21.57518649575546</v>
+        <v>21.57518649575545</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>67.6021103459352</v>
+        <v>67.60211034593519</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>56.15182486543644</v>
+        <v>56.15182486543643</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>51.70359264063454</v>
+        <v>51.70359264063453</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>76.50590157150553</v>
+        <v>76.50590157150552</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>7.713571123358876</v>
+        <v>7.713571123358875</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>5.370966390027145</v>
+        <v>5.370966390027144</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>14.24829330080636</v>
+        <v>14.24829330080635</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>33.84677425499877</v>
+        <v>33.84677425499876</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>19.80958002334018</v>
+        <v>19.80958002334017</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58071,7 +58071,7 @@
         <v>7216</v>
       </c>
       <c r="B7216">
-        <v>14.54004551979373</v>
+        <v>14.54004551979372</v>
       </c>
     </row>
     <row r="7217" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>4.868701243969332</v>
+        <v>4.868701243969331</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>67.57954387595828</v>
+        <v>67.57954387595827</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>61.60148082934416</v>
+        <v>61.60148082934415</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>79.17900251513566</v>
+        <v>79.17900251513565</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>76.65155787772022</v>
+        <v>76.65155787772021</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>14.80290093436909</v>
+        <v>14.80290093436908</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>60.91335003056732</v>
+        <v>60.91335003056731</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>8.370607084933747</v>
+        <v>8.370607084933745</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>23.03828504206449</v>
+        <v>23.03828504206448</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>0.4978221891117076</v>
+        <v>0.4978221891117075</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>8.052097480116597</v>
+        <v>8.052097480116595</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>7.876020400088859</v>
+        <v>7.876020400088858</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>8.708811063548939</v>
+        <v>8.708811063548938</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>31.97903252561002</v>
+        <v>31.97903252561001</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>32.74629250482542</v>
+        <v>32.74629250482541</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>95.8532792597729</v>
+        <v>95.85327925977288</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>3.525380831161189</v>
+        <v>3.525380831161188</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>80.68919757735758</v>
+        <v>80.68919757735756</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>9.611616398145213</v>
+        <v>9.611616398145211</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>31.87938837246516</v>
+        <v>31.87938837246515</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>74.16778082506532</v>
+        <v>74.16778082506531</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>69.81889968236962</v>
+        <v>69.8188996823696</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>2.169980030139426</v>
+        <v>2.169980030139425</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60095,7 +60095,7 @@
         <v>7469</v>
       </c>
       <c r="B7469">
-        <v>5.192632663001716</v>
+        <v>5.192632663001715</v>
       </c>
     </row>
     <row r="7470" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>76.51645212889734</v>
+        <v>76.51645212889733</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60271,7 +60271,7 @@
         <v>7491</v>
       </c>
       <c r="B7491">
-        <v>1.79160773496531</v>
+        <v>1.791607734965309</v>
       </c>
     </row>
     <row r="7492" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>91.03343295794842</v>
+        <v>91.03343295794841</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>0.9215706732017602</v>
+        <v>0.92157067320176</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60999,7 +60999,7 @@
         <v>7582</v>
       </c>
       <c r="B7582">
-        <v>50.8448944973568</v>
+        <v>50.84489449735679</v>
       </c>
     </row>
     <row r="7583" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>53.50744488359512</v>
+        <v>53.50744488359511</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>62.59762928975407</v>
+        <v>62.59762928975406</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>90.88250137303784</v>
+        <v>90.8825013730378</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>26.62638307549921</v>
+        <v>26.6263830754992</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>47.97133296328231</v>
+        <v>47.9713329632823</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>8.264896361288599</v>
+        <v>8.264896361288598</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>5.877217302210753</v>
+        <v>5.877217302210752</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>7.593177540676796</v>
+        <v>7.593177540676795</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>45.21206913428574</v>
+        <v>45.21206913428573</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>30.33930006429979</v>
+        <v>30.33930006429978</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>60.79377704679349</v>
+        <v>60.79377704679348</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>70.50175520245055</v>
+        <v>70.50175520245054</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>159.2568539058457</v>
+        <v>159.2568539058456</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>28.8443153889844</v>
+        <v>28.84431538898439</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62383,7 +62383,7 @@
         <v>7755</v>
       </c>
       <c r="B7755">
-        <v>60.48253560373514</v>
+        <v>60.48253560373513</v>
       </c>
     </row>
     <row r="7756" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>67.39813290302691</v>
+        <v>67.39813290302689</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62527,7 +62527,7 @@
         <v>7773</v>
       </c>
       <c r="B7773">
-        <v>1.611389561161289</v>
+        <v>1.611389561161288</v>
       </c>
     </row>
     <row r="7774" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>179.9242235522438</v>
+        <v>179.9242235522437</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>8.524117694984559</v>
+        <v>8.524117694984557</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>49.39008986144188</v>
+        <v>49.39008986144187</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62991,7 +62991,7 @@
         <v>7831</v>
       </c>
       <c r="B7831">
-        <v>88.1138592708041</v>
+        <v>88.11385927080408</v>
       </c>
     </row>
     <row r="7832" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>180.3562102632306</v>
+        <v>180.3562102632305</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>39.86703953118013</v>
+        <v>39.86703953118012</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>75.96342707894338</v>
+        <v>75.96342707894337</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>87.60919094222926</v>
+        <v>87.60919094222925</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>81.53031145831564</v>
+        <v>81.53031145831562</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>52.74575325411429</v>
+        <v>52.74575325411428</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>58.984649525137</v>
+        <v>58.98464952513699</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63471,7 +63471,7 @@
         <v>7891</v>
       </c>
       <c r="B7891">
-        <v>57.03572711803906</v>
+        <v>57.03572711803905</v>
       </c>
     </row>
     <row r="7892" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>53.20675399792858</v>
+        <v>53.20675399792857</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>51.56614232350237</v>
+        <v>51.56614232350236</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>6.162346115724375</v>
+        <v>6.162346115724374</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>90.7242430121607</v>
+        <v>90.72424301216068</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>87.5960027454895</v>
+        <v>87.59600274548949</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64023,7 +64023,7 @@
         <v>7960</v>
       </c>
       <c r="B7960">
-        <v>91.96012358219561</v>
+        <v>91.96012358219558</v>
       </c>
     </row>
     <row r="7961" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>5.371816296039263</v>
+        <v>5.371816296039262</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>8.796058311758422</v>
+        <v>8.79605831175842</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>7.166202344451081</v>
+        <v>7.16620234445108</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>48.49593012248612</v>
+        <v>48.49593012248611</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>58.01634281339992</v>
+        <v>58.01634281339991</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>41.99942440848008</v>
+        <v>41.99942440848007</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>44.30999647728612</v>
+        <v>44.30999647728611</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>43.65820648730329</v>
+        <v>43.65820648730328</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>211.6872627223604</v>
+        <v>211.6872627223603</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>81.49983207029486</v>
+        <v>81.49983207029484</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>91.6825853085833</v>
+        <v>91.68258530858328</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>60.26097389850716</v>
+        <v>60.26097389850715</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>59.94533638986889</v>
+        <v>59.94533638986888</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>63.8991577724491</v>
+        <v>63.89915777244909</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65727,7 +65727,7 @@
         <v>8173</v>
       </c>
       <c r="B8173">
-        <v>65.97146308682348</v>
+        <v>65.97146308682346</v>
       </c>
     </row>
     <row r="8174" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>51.87943526383135</v>
+        <v>51.87943526383134</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>26.48254380972422</v>
+        <v>26.48254380972421</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>76.20843446726427</v>
+        <v>76.20843446726425</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>76.70987901441383</v>
+        <v>76.70987901441381</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>117.9977269410242</v>
+        <v>117.9977269410241</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>98.56623786466098</v>
+        <v>98.56623786466096</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>7.235572259302222</v>
+        <v>7.235572259302221</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>8.50773502392339</v>
+        <v>8.507735023923388</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>44.47323704582049</v>
+        <v>44.47323704582048</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>45.54323940797306</v>
+        <v>45.54323940797305</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66807,7 +66807,7 @@
         <v>8308</v>
       </c>
       <c r="B8308">
-        <v>13.30407702844724</v>
+        <v>13.30407702844723</v>
       </c>
     </row>
     <row r="8309" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>161.0894271105951</v>
+        <v>161.089427110595</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66871,7 +66871,7 @@
         <v>8316</v>
       </c>
       <c r="B8316">
-        <v>146.6354565548562</v>
+        <v>146.6354565548561</v>
       </c>
     </row>
     <row r="8317" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>114.2059738428237</v>
+        <v>114.2059738428236</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>5.587076973936021</v>
+        <v>5.58707697393602</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>7.49822252415052</v>
+        <v>7.498222524150519</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>9.428710762916667</v>
+        <v>9.428710762916666</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>26.93993977976298</v>
+        <v>26.93993977976297</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>93.37477748581392</v>
+        <v>93.37477748581389</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>73.08488333721165</v>
+        <v>73.08488333721164</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>12.84005765293473</v>
+        <v>12.84005765293472</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>46.90631280878698</v>
+        <v>46.90631280878697</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67375,7 +67375,7 @@
         <v>8379</v>
       </c>
       <c r="B8379">
-        <v>63.98356223158357</v>
+        <v>63.98356223158356</v>
       </c>
     </row>
     <row r="8380" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>29.5166496587774</v>
+        <v>29.51664965877739</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67503,7 +67503,7 @@
         <v>8395</v>
       </c>
       <c r="B8395">
-        <v>48.9850656860119</v>
+        <v>48.98506568601189</v>
       </c>
     </row>
     <row r="8396" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>54.27148108138525</v>
+        <v>54.27148108138524</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>49.38774529313259</v>
+        <v>49.38774529313258</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67583,7 +67583,7 @@
         <v>8405</v>
       </c>
       <c r="B8405">
-        <v>50.30476457310394</v>
+        <v>50.30476457310393</v>
       </c>
     </row>
     <row r="8406" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>119.9006371950523</v>
+        <v>119.9006371950522</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>98.99470772318386</v>
+        <v>98.99470772318384</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>4.390760994120409</v>
+        <v>4.390760994120408</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67959,7 +67959,7 @@
         <v>8452</v>
       </c>
       <c r="B8452">
-        <v>24.55272963434699</v>
+        <v>24.55272963434698</v>
       </c>
     </row>
     <row r="8453" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>98.01057517535908</v>
+        <v>98.01057517535904</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>1.70971489463217</v>
+        <v>1.709714894632169</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>4.560771503647856</v>
+        <v>4.560771503647855</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>5.82469897208264</v>
+        <v>5.824698972082639</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>79.61157536819981</v>
+        <v>79.61157536819979</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>101.0804943053367</v>
+        <v>101.0804943053366</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>0.3320641403552373</v>
+        <v>0.3320641403552372</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>1.197825295664718</v>
+        <v>1.197825295664717</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>65.82639292268611</v>
+        <v>65.8263929226861</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68671,7 +68671,7 @@
         <v>8541</v>
       </c>
       <c r="B8541">
-        <v>72.14178073479944</v>
+        <v>72.14178073479943</v>
       </c>
     </row>
     <row r="8542" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>80.41957222178914</v>
+        <v>80.41957222178912</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>32.56048546631413</v>
+        <v>32.56048546631412</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>85.73939771556988</v>
+        <v>85.73939771556986</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>14.67309977134598</v>
+        <v>14.67309977134597</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>44.00432338396234</v>
+        <v>44.00432338396233</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>45.08985851116396</v>
+        <v>45.08985851116395</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>25.87556438155271</v>
+        <v>25.8755643815527</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>43.91786742755724</v>
+        <v>43.91786742755723</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>48.64862013362868</v>
+        <v>48.64862013362867</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>53.75714140853459</v>
+        <v>53.75714140853458</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>60.45234928675302</v>
+        <v>60.45234928675301</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>62.56920139900392</v>
+        <v>62.56920139900391</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>75.14546581003957</v>
+        <v>75.14546581003955</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>66.76158260705446</v>
+        <v>66.76158260705445</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>10.16165212350483</v>
+        <v>10.16165212350482</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>70.26729837152148</v>
+        <v>70.26729837152146</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
